--- a/8-courses/2023-2024-HK3-TTDN/7-HangNTM-TTDN-2023-2024-HK3-20240612.xlsx
+++ b/8-courses/2023-2024-HK3-TTDN/7-HangNTM-TTDN-2023-2024-HK3-20240612.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="2-ThePT-TTDN-2023-2024-HK3-2024" sheetId="1" r:id="rId1"/>
+    <sheet name="7-HangNTM-TTDN-2023-2024-HK3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>Lại Phú</t>
+  </si>
+  <si>
+    <t>Ngày ... tháng 06 năm 2024</t>
   </si>
   <si>
     <t>Ngày ... tháng ... năm ...</t>
@@ -561,7 +564,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +596,11 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1080,137 +1088,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1237,7 +1245,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1589,7 +1601,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N$1:N$1048576"/>
+      <selection activeCell="J54" sqref="J54:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.8"/>
@@ -1758,7 +1770,7 @@
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2599,14 +2611,14 @@
       <c r="D42" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
@@ -2789,26 +2801,26 @@
         <v>171</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="10:12">
       <c r="J54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="11:11">
-      <c r="K57" s="1" t="s">
-        <v>173</v>
+      <c r="K57" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/8-courses/2023-2024-HK3-TTDN/7-HangNTM-TTDN-2023-2024-HK3-20240612.xlsx
+++ b/8-courses/2023-2024-HK3-TTDN/7-HangNTM-TTDN-2023-2024-HK3-20240612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="7-HangNTM-TTDN-2023-2024-HK3" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>Lại Phú</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>22211TT1369</t>
+  </si>
+  <si>
+    <t>Đặng Anh</t>
+  </si>
+  <si>
+    <t>Quân</t>
   </si>
   <si>
     <t>Ngày ... tháng 06 năm 2024</t>
@@ -1218,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1247,9 +1259,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1598,10 +1607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54:L54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.8"/>
@@ -2796,31 +2805,53 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="53" spans="10:12">
-      <c r="J53" s="2" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="B51" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="C51" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="54" spans="10:12">
-      <c r="J54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57" s="14" t="s">
-        <v>174</v>
+      <c r="J54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="10:12">
+      <c r="J55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2841,8 +2872,8 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="E11:J11"/>
-    <mergeCell ref="J53:L53"/>
     <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J55:L55"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
